--- a/Results/2023 Datasheets & Spreadsheets_combined_data.xlsx
+++ b/Results/2023 Datasheets & Spreadsheets_combined_data.xlsx
@@ -1,14 +1,45 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="BYD SEAL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="XPENG G9" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="VINFAST VF8" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Honda ZR-V" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="BYD SEAL-U" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Volkswagen ID.7" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="BMW 5 series" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="smart #3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="BYD TANG" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Hyundai KONA" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Kia EV9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="NIO ET5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="NIO EL7" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Lexus RZ" sheetId="14" state="visible" r:id="rId14"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +50,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,12 +58,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +430,2706 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0371900826446281</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>103</v>
+      </c>
+      <c r="D4" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4256198347107438</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.268595041322314</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.04132231404958678</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>41</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1694214876033058</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05785123966942149</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>242</v>
+      </c>
+      <c r="D10" t="n">
+        <v>121.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>79</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3434782608695652</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3521739130434783</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1173913043478261</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0391304347826087</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.09565217391304348</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05217391304347826</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>230</v>
+      </c>
+      <c r="D10" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>95</v>
+      </c>
+      <c r="D3" t="n">
+        <v>95</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3830645161290323</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3024193548387097</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1048387096774194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.04838709677419355</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1209677419354839</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04032258064516129</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>248</v>
+      </c>
+      <c r="D10" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1976744186046512</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>102</v>
+      </c>
+      <c r="D4" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3953488372093023</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1434108527131783</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06589147286821706</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1356589147286822</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06201550387596899</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>258</v>
+      </c>
+      <c r="D10" t="n">
+        <v>150.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2790697674418605</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.251937984496124</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1782945736434109</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06976744186046512</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.189922480620155</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0310077519379845</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>258</v>
+      </c>
+      <c r="D10" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>92</v>
+      </c>
+      <c r="D3" t="n">
+        <v>92</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2565217391304348</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1478260869565217</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09565217391304348</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04782608695652174</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05217391304347826</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>230</v>
+      </c>
+      <c r="D10" t="n">
+        <v>158.75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1150793650793651</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2936507936507937</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1031746031746032</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>61</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2420634920634921</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>252</v>
+      </c>
+      <c r="D10" t="n">
+        <v>119</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>97</v>
+      </c>
+      <c r="D3" t="n">
+        <v>97</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4008264462809917</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2024793388429752</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.04132231404958678</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>52</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2148760330578512</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04958677685950413</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>242</v>
+      </c>
+      <c r="D10" t="n">
+        <v>147.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09130434782608696</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2782608695652174</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3434782608695652</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08260869565217391</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06956521739130435</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.08260869565217391</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05217391304347826</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>230</v>
+      </c>
+      <c r="D10" t="n">
+        <v>157.75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2217741935483871</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3346774193548387</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1008064516129032</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1370967741935484</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1733870967741936</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>248</v>
+      </c>
+      <c r="D10" t="n">
+        <v>138.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.04201680672268908</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>81</v>
+      </c>
+      <c r="D3" t="n">
+        <v>81</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3403361344537815</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>103</v>
+      </c>
+      <c r="D4" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4327731092436975</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03361344537815126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02521008403361345</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.06722689075630252</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>238</v>
+      </c>
+      <c r="D10" t="n">
+        <v>173.75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>147</v>
+      </c>
+      <c r="D3" t="n">
+        <v>147</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6282051282051282</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1452991452991453</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.05982905982905983</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.04273504273504274</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.08974358974358974</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03418803418803419</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>234</v>
+      </c>
+      <c r="D10" t="n">
+        <v>182</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.07327586206896551</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>85</v>
+      </c>
+      <c r="D3" t="n">
+        <v>85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3663793103448276</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2370689655172414</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1163793103448276</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.05172413793103448</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.09482758620689655</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0603448275862069</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>232</v>
+      </c>
+      <c r="D10" t="n">
+        <v>159.75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2136752136752137</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3418803418803419</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1239316239316239</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09829059829059829</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1709401709401709</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>234</v>
+      </c>
+      <c r="D10" t="n">
+        <v>130.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>